--- a/03_plots_and_tables/long_CD_surg_table.xlsx
+++ b/03_plots_and_tables/long_CD_surg_table.xlsx
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.390898262513126e-24</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4.172694787539377e-23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>margalef</t>
+          <t>gini_index</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -424,16 +424,16 @@
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.143708668335248e-23</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3.215563002502872e-22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>menhinick</t>
+          <t>shannon_entropy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -447,16 +447,16 @@
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4.200407645945395e-23</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4.200407645945395e-22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fisher_alpha</t>
+          <t>margalef</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.230189986390094e-21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6.150949931950471e-21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>faith_pd</t>
+          <t>menhinick</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.230189986390094e-21</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6.150949931950471e-21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gini_index</t>
+          <t>fisher_alpha</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.230189986390094e-21</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6.150949931950471e-21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>faith_pd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.043118535002689e-19</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4.470508007154379e-19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pielou_evenness</t>
+          <t>simpson</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1.272275901678544e-19</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4.771034631294539e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>shannon_entropy</t>
+          <t>pielou_evenness</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.648694694942571e-17</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5.495648983141903e-17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>simpson</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>9.037342323625794e-11</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.259335580906448e-10</v>
       </c>
     </row>
   </sheetData>
